--- a/python-excel-seasonal-plots-demo.xlsx
+++ b/python-excel-seasonal-plots-demo.xlsx
@@ -8,15 +8,299 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F771B225-7554-451E-B6E4-72DBA386914F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF4231C9-EDF2-421B-AE7A-3A5CF4C1AF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{8B387E3D-A676-46B1-BA58-7FE9BB5AF135}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{8B387E3D-A676-46B1-BA58-7FE9BB5AF135}"/>
   </bookViews>
   <sheets>
-    <sheet name="AirPassengers (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="AirPassengers (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="11">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="11">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization userModified="1">
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>passengers_df = xl(%P2%, headers=True)
+passengers_df['month'] = pd.to_datetime(passengers_df['month'])
+passengers_df['year'] = passengers_df['month'].dt.year
+passengers_df['month_name'] = passengers_df['month'].dt.strftime('%%b')
+passengers_df['month_num'] = passengers_df['month'].dt.month
+passengers_df.head()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>plt.figure(figsize=(12, 5))
+label_years = [1949, 1955, 1960]  # or any 3-4 key years you care about
+for year, group in passengers_df.groupby('year'):
+    plt.plot(group['month_num'], group['passengers'], color='steelblue', alpha=0.5)
+    if year in label_years:
+        dec_point = group[group['month_num'] == 12]
+        if not dec_point.empty:
+            plt.text(x=12.1, y=dec_point['passengers'].values[0], s=str(year),
+                     fontsize=9, color='black', va='center')</code>
+    </pythonScript>
+    <pythonScript>
+      <code>plt.figure(figsize=(10, 5))
+sns.boxplot(data=passengers_df, x='month_name', y='passengers',
+            order=['Jan','Feb','Mar','Apr','May','Jun',
+                   'Jul','Aug','Sep','Oct','Nov','Dec'],
+            color='lightblue', width=0.6)
+sns.stripplot(data=passengers_df, x='month_name', y='passengers',
+              order=['Jan','Feb','Mar','Apr','May','Jun',
+                     'Jul','Aug','Sep','Oct','Nov','Dec'],
+              color='gray', alpha=0.5, jitter=True)
+plt.title('Seasonal Subseries Plot')
+plt.xlabel('Month')
+plt.ylabel('Passengers')</code>
+    </pythonScript>
+    <pythonScript>
+      <code>import matplotlib.pyplot as plt
+# Monthly trend: group by year and month
+monthly_trend_df = passengers_df.copy()
+# Build the plot
+g = sns.FacetGrid(monthly_trend_df, col="month_name", col_order=['Jan','Feb','Mar','Apr','May','Jun',
+                                                                  'Jul','Aug','Sep','Oct','Nov','Dec'],
+                  col_wrap=4, height=2.5, aspect=1.2, sharex=True, sharey=True)
+# Draw year-by-year lineplot
+g.map_dataframe(sns.lineplot, x="year", y="passengers", color="gray", alpha=0.4)
+# Overlay mean line
+avg_by_month = monthly_trend_df.groupby(['month_num'])['passengers'].mean().reset_index()
+month_name_map = dict(zip(range(1,13), ['Jan','Feb','Mar','Apr','May','Jun','Jul','Aug','Sep','Oct','Nov','Dec']))
+avg_by_month['month_name'] = avg_by_month['month_num'].map(month_name_map)
+# Function to draw mean line per facet
+def draw_avg_line(data, color, **kwargs):
+    month = data['month_name'].iloc[0]
+    avg_val = avg_by_month.loc[avg_by_month['month_name'] == month, 'passengers'].values[0]
+    plt.axhline(avg_val, color='black', linestyle='--', linewidth=1)
+g.map_dataframe(draw_avg_line)
+g.set_titles("{col_name}")
+g.set_axis_labels("Year", "Passengers")
+g.tight_layout()
+plt.subplots_adjust(top=0.9)
+g.fig.suptitle("Passenger Trends by Month with Mean Overlay")
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code xml:space="preserve">import numpy as np
+import matplotlib.pyplot as plt
+# --- Step 1: Prepare radar_loop_df with closed loop ---
+radar_df = passengers_df.copy()
+radar_df = radar_df.sort_values(['year', 'month_num'])
+# Duplicate January as "month 13" to close the circle
+jan_dup = radar_df[radar_df['month_num'] == 1].copy()
+jan_dup['month_num'] = 13
+jan_dup['angle'] = 2 * np.pi  # Closing angle
+# Combine original + duplicated Jan
+radar_loop_df = pd.concat([radar_df, jan_dup], ignore_index=True)
+# Recalculate angle based on month_num (if not already done)
+radar_loop_df['angle'] = 2 * np.pi * (radar_loop_df['month_num'] - 1) / 12
+# --- Step 2: Plot the radar chart with selected year labels ---
+plt.figure(figsize=(8, 8))
+ax = plt.subplot(111, polar=True)
+# Choose years to label
+label_years = [1949, 1955, 1960]
+# Plot all lines in the same style
+for year, group in radar_loop_df.groupby('year'):
+    ax.plot(group['angle'], group['passengers'], color='steelblue', alpha=0.6, linewidth=1)
+    # Label selected years at December point
+    if year in label_years:
+        dec_point = group[group['month_num'] == 12]
+        if not dec_point.empty:
+            angle = dec_point['angle'].values[0]
+            value = dec_point['passengers'].values[0]
+            ax.text(angle + 0.05, value, str(year), fontsize=9, color='black',
+                    ha='left', va='center')
+# Set month labels around the circle
+ax.set_xticks(np.linspace(0, 2 * np.pi, 12, endpoint=False))
+ax.set_xticklabels(['Jan', 'Feb', 'Mar', 'Apr', 'May', 'Jun',
+                    'Jul', 'Aug', 'Sep', 'Oct', 'Nov', 'Dec'])
+ax.set_title('Polar Seasonal Plot (Closed Loop)', pad=20)
+plt.tight_layout()
+plt.show()
+</code>
+    </pythonScript>
+    <pythonScript>
+      <code>heatmap_data = passengers_df.pivot(index='year', columns='month_num', values='passengers')
+plt.figure(figsize=(10, 6))
+sns.heatmap(heatmap_data, cmap='YlGnBu', cbar_kws={'label': 'Passengers'})
+plt.title('Seasonal Heatmap of Passengers')
+plt.xlabel('Month')
+plt.ylabel('Year')
+plt.xticks(ticks=np.arange(12)+0.5, labels=['Jan', 'Feb', 'Mar', 'Apr', 'May', 'Jun',
+                                            'Jul', 'Aug', 'Sep', 'Oct', 'Nov', 'Dec'], rotation=0)
+plt.tight_layout()</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43,6 +327,126 @@
     <t>1949-07</t>
   </si>
   <si>
+    <t>1950-07</t>
+  </si>
+  <si>
+    <t>1950-08</t>
+  </si>
+  <si>
+    <t>1950-09</t>
+  </si>
+  <si>
+    <t>1950-10</t>
+  </si>
+  <si>
+    <t>1950-11</t>
+  </si>
+  <si>
+    <t>1950-12</t>
+  </si>
+  <si>
+    <t>1951-01</t>
+  </si>
+  <si>
+    <t>1951-02</t>
+  </si>
+  <si>
+    <t>1951-03</t>
+  </si>
+  <si>
+    <t>1951-04</t>
+  </si>
+  <si>
+    <t>1951-05</t>
+  </si>
+  <si>
+    <t>1951-06</t>
+  </si>
+  <si>
+    <t>1951-07</t>
+  </si>
+  <si>
+    <t>1951-08</t>
+  </si>
+  <si>
+    <t>1951-09</t>
+  </si>
+  <si>
+    <t>1951-10</t>
+  </si>
+  <si>
+    <t>1951-11</t>
+  </si>
+  <si>
+    <t>1951-12</t>
+  </si>
+  <si>
+    <t>1952-01</t>
+  </si>
+  <si>
+    <t>1952-02</t>
+  </si>
+  <si>
+    <t>1952-03</t>
+  </si>
+  <si>
+    <t>1952-04</t>
+  </si>
+  <si>
+    <t>1952-09</t>
+  </si>
+  <si>
+    <t>1959-10</t>
+  </si>
+  <si>
+    <t>1959-11</t>
+  </si>
+  <si>
+    <t>1959-12</t>
+  </si>
+  <si>
+    <t>1960-01</t>
+  </si>
+  <si>
+    <t>1960-02</t>
+  </si>
+  <si>
+    <t>1960-03</t>
+  </si>
+  <si>
+    <t>1960-04</t>
+  </si>
+  <si>
+    <t>1960-05</t>
+  </si>
+  <si>
+    <t>1960-06</t>
+  </si>
+  <si>
+    <t>1960-07</t>
+  </si>
+  <si>
+    <t>1960-08</t>
+  </si>
+  <si>
+    <t>1960-09</t>
+  </si>
+  <si>
+    <t>1960-10</t>
+  </si>
+  <si>
+    <t>1960-11</t>
+  </si>
+  <si>
+    <t>1960-12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>passengers</t>
+  </si>
+  <si>
     <t>1949-08</t>
   </si>
   <si>
@@ -76,72 +480,6 @@
     <t>1950-06</t>
   </si>
   <si>
-    <t>1950-07</t>
-  </si>
-  <si>
-    <t>1950-08</t>
-  </si>
-  <si>
-    <t>1950-09</t>
-  </si>
-  <si>
-    <t>1950-10</t>
-  </si>
-  <si>
-    <t>1950-11</t>
-  </si>
-  <si>
-    <t>1950-12</t>
-  </si>
-  <si>
-    <t>1951-01</t>
-  </si>
-  <si>
-    <t>1951-02</t>
-  </si>
-  <si>
-    <t>1951-03</t>
-  </si>
-  <si>
-    <t>1951-04</t>
-  </si>
-  <si>
-    <t>1951-05</t>
-  </si>
-  <si>
-    <t>1951-06</t>
-  </si>
-  <si>
-    <t>1951-07</t>
-  </si>
-  <si>
-    <t>1951-08</t>
-  </si>
-  <si>
-    <t>1951-09</t>
-  </si>
-  <si>
-    <t>1951-10</t>
-  </si>
-  <si>
-    <t>1951-11</t>
-  </si>
-  <si>
-    <t>1951-12</t>
-  </si>
-  <si>
-    <t>1952-01</t>
-  </si>
-  <si>
-    <t>1952-02</t>
-  </si>
-  <si>
-    <t>1952-03</t>
-  </si>
-  <si>
-    <t>1952-04</t>
-  </si>
-  <si>
     <t>1952-05</t>
   </si>
   <si>
@@ -154,9 +492,6 @@
     <t>1952-08</t>
   </si>
   <si>
-    <t>1952-09</t>
-  </si>
-  <si>
     <t>1952-10</t>
   </si>
   <si>
@@ -407,57 +742,6 @@
   </si>
   <si>
     <t>1959-09</t>
-  </si>
-  <si>
-    <t>1959-10</t>
-  </si>
-  <si>
-    <t>1959-11</t>
-  </si>
-  <si>
-    <t>1959-12</t>
-  </si>
-  <si>
-    <t>1960-01</t>
-  </si>
-  <si>
-    <t>1960-02</t>
-  </si>
-  <si>
-    <t>1960-03</t>
-  </si>
-  <si>
-    <t>1960-04</t>
-  </si>
-  <si>
-    <t>1960-05</t>
-  </si>
-  <si>
-    <t>1960-06</t>
-  </si>
-  <si>
-    <t>1960-07</t>
-  </si>
-  <si>
-    <t>1960-08</t>
-  </si>
-  <si>
-    <t>1960-09</t>
-  </si>
-  <si>
-    <t>1960-10</t>
-  </si>
-  <si>
-    <t>1960-11</t>
-  </si>
-  <si>
-    <t>1960-12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>passengers</t>
   </si>
 </sst>
 </file>
@@ -1001,6 +1285,406 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95265</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>197937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC03966-8A7F-4BDC-B613-308C5A99BF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'AirPassengers (2)'!B25"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4491038" y="6843712"/>
+          <a:ext cx="7772415" cy="4279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923926</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76596</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>284812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7FC760D-2B04-412F-8493-38693A1CF254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'AirPassengers (2)'!B66"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5167314" y="19045238"/>
+          <a:ext cx="7077470" cy="7223774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>966238</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>270523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039E1201-E05C-4CB2-A85F-C62E8527AA3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'AirPassengers (2)'!B40"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5233988" y="11515725"/>
+          <a:ext cx="10872238" cy="6766573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91077</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>75065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6427EA31-42FF-E067-D923-11FFAA9D5BEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'AirPassengers (2)'!B9"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="2362200"/>
+          <a:ext cx="9016002" cy="3913640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>587900</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>80021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FDC2187-CD46-A85F-5DED-41B76313FF0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'AirPassengers (2)'!B93"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="27165300"/>
+          <a:ext cx="8522225" cy="5394971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="11">
+  <rv s="0">
+    <v>14</v>
+  </rv>
+  <rv s="1">
+    <fb>17899</fb>
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <fb>17930</fb>
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <fb>17958</fb>
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <fb>17989</fb>
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <fb>18019</fb>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="2">
+    <v>2</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="2">
+    <v>3</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="2">
+    <v>4</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+  </s>
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="1">
+    <spb s="0">
+      <v>1</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </x:dxf>
+  </dxfs>
+  <richStyles>
+    <rSty dxfid="0"/>
+  </richStyles>
+</richStyleSheet>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+</richValueRels>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C029A9D-6828-4D75-8331-FB1D4D6522CF}" name="passengers" displayName="passengers" ref="A1:B145" totalsRowShown="0">
   <autoFilter ref="A1:B145" xr:uid="{8C029A9D-6828-4D75-8331-FB1D4D6522CF}"/>
@@ -1331,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E05B2DD-F1E2-481C-9F2E-508CFB0C40C4}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
@@ -1342,10 +2026,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.7">
@@ -1406,7 +2090,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>148</v>
@@ -1414,7 +2098,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>136</v>
@@ -1422,7 +2106,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>119</v>
@@ -1430,7 +2114,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>104</v>
@@ -1438,7 +2122,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>118</v>
@@ -1446,7 +2130,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>115</v>
@@ -1454,7 +2138,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>126</v>
@@ -1462,7 +2146,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>141</v>
@@ -1470,7 +2154,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>135</v>
@@ -1478,7 +2162,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>125</v>
@@ -1486,7 +2170,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>149</v>
@@ -1494,7 +2178,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>170</v>
@@ -1502,7 +2186,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>170</v>
@@ -1510,7 +2194,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>158</v>
@@ -1518,7 +2202,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>133</v>
@@ -1526,7 +2210,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>114</v>
@@ -1534,7 +2218,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>140</v>
@@ -1542,7 +2226,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>145</v>
@@ -1550,7 +2234,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>150</v>
@@ -1558,7 +2242,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <v>178</v>
@@ -1566,7 +2250,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>163</v>
@@ -1574,7 +2258,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <v>172</v>
@@ -1582,7 +2266,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>178</v>
@@ -1590,7 +2274,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B32">
         <v>199</v>
@@ -1598,7 +2282,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B33">
         <v>199</v>
@@ -1606,7 +2290,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>184</v>
@@ -1614,7 +2298,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>162</v>
@@ -1622,7 +2306,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>146</v>
@@ -1630,7 +2314,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>166</v>
@@ -1638,7 +2322,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>171</v>
@@ -1646,7 +2330,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>180</v>
@@ -1654,7 +2338,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>193</v>
@@ -1662,7 +2346,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>181</v>
@@ -1670,7 +2354,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B42">
         <v>183</v>
@@ -1678,7 +2362,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B43">
         <v>218</v>
@@ -1686,7 +2370,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B44">
         <v>230</v>
@@ -1694,7 +2378,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>242</v>
@@ -1702,7 +2386,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B46">
         <v>209</v>
@@ -1710,7 +2394,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B47">
         <v>191</v>
@@ -1718,7 +2402,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B48">
         <v>172</v>
@@ -1726,7 +2410,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B49">
         <v>194</v>
@@ -1734,7 +2418,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B50">
         <v>196</v>
@@ -1742,7 +2426,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B51">
         <v>196</v>
@@ -1750,7 +2434,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B52">
         <v>236</v>
@@ -1758,7 +2442,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B53">
         <v>235</v>
@@ -1766,7 +2450,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B54">
         <v>229</v>
@@ -1774,7 +2458,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B55">
         <v>243</v>
@@ -1782,7 +2466,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B56">
         <v>264</v>
@@ -1790,7 +2474,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B57">
         <v>272</v>
@@ -1798,7 +2482,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B58">
         <v>237</v>
@@ -1806,7 +2490,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B59">
         <v>211</v>
@@ -1814,7 +2498,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B60">
         <v>180</v>
@@ -1822,7 +2506,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B61">
         <v>201</v>
@@ -1830,7 +2514,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B62">
         <v>204</v>
@@ -1838,7 +2522,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B63">
         <v>188</v>
@@ -1846,7 +2530,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B64">
         <v>235</v>
@@ -1854,7 +2538,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B65">
         <v>227</v>
@@ -1862,7 +2546,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B66">
         <v>234</v>
@@ -1870,7 +2554,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B67">
         <v>264</v>
@@ -1878,7 +2562,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B68">
         <v>302</v>
@@ -1886,7 +2570,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B69">
         <v>293</v>
@@ -1894,7 +2578,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B70">
         <v>259</v>
@@ -1902,7 +2586,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B71">
         <v>229</v>
@@ -1910,7 +2594,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B72">
         <v>203</v>
@@ -1918,7 +2602,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B73">
         <v>229</v>
@@ -1926,7 +2610,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B74">
         <v>242</v>
@@ -1934,7 +2618,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B75">
         <v>233</v>
@@ -1942,7 +2626,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B76">
         <v>267</v>
@@ -1950,7 +2634,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B77">
         <v>269</v>
@@ -1958,7 +2642,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B78">
         <v>270</v>
@@ -1966,7 +2650,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B79">
         <v>315</v>
@@ -1974,7 +2658,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B80">
         <v>364</v>
@@ -1982,7 +2666,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B81">
         <v>347</v>
@@ -1990,7 +2674,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B82">
         <v>312</v>
@@ -1998,7 +2682,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B83">
         <v>274</v>
@@ -2006,7 +2690,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B84">
         <v>237</v>
@@ -2014,7 +2698,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B85">
         <v>278</v>
@@ -2022,7 +2706,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B86">
         <v>284</v>
@@ -2030,7 +2714,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B87">
         <v>277</v>
@@ -2038,7 +2722,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B88">
         <v>317</v>
@@ -2046,7 +2730,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B89">
         <v>313</v>
@@ -2054,7 +2738,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B90">
         <v>318</v>
@@ -2062,7 +2746,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B91">
         <v>374</v>
@@ -2070,7 +2754,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B92">
         <v>413</v>
@@ -2078,7 +2762,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B93">
         <v>405</v>
@@ -2086,7 +2770,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B94">
         <v>355</v>
@@ -2094,7 +2778,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B95">
         <v>306</v>
@@ -2102,7 +2786,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B96">
         <v>271</v>
@@ -2110,7 +2794,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B97">
         <v>306</v>
@@ -2118,7 +2802,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B98">
         <v>315</v>
@@ -2126,7 +2810,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B99">
         <v>301</v>
@@ -2134,7 +2818,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B100">
         <v>356</v>
@@ -2142,7 +2826,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B101">
         <v>348</v>
@@ -2150,7 +2834,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B102">
         <v>355</v>
@@ -2158,7 +2842,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B103">
         <v>422</v>
@@ -2166,7 +2850,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B104">
         <v>465</v>
@@ -2174,7 +2858,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B105">
         <v>467</v>
@@ -2182,7 +2866,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B106">
         <v>404</v>
@@ -2190,7 +2874,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B107">
         <v>347</v>
@@ -2198,7 +2882,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B108">
         <v>305</v>
@@ -2206,7 +2890,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B109">
         <v>336</v>
@@ -2214,7 +2898,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B110">
         <v>340</v>
@@ -2222,7 +2906,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B111">
         <v>318</v>
@@ -2230,7 +2914,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B112">
         <v>362</v>
@@ -2238,7 +2922,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B113">
         <v>348</v>
@@ -2246,7 +2930,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B114">
         <v>363</v>
@@ -2254,7 +2938,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B115">
         <v>435</v>
@@ -2262,7 +2946,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B116">
         <v>491</v>
@@ -2270,7 +2954,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B117">
         <v>505</v>
@@ -2278,7 +2962,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B118">
         <v>404</v>
@@ -2286,7 +2970,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B119">
         <v>359</v>
@@ -2294,7 +2978,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B120">
         <v>310</v>
@@ -2302,7 +2986,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B121">
         <v>337</v>
@@ -2310,7 +2994,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B122">
         <v>360</v>
@@ -2318,7 +3002,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B123">
         <v>342</v>
@@ -2326,7 +3010,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B124">
         <v>406</v>
@@ -2334,7 +3018,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B125">
         <v>396</v>
@@ -2342,7 +3026,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B126">
         <v>420</v>
@@ -2350,7 +3034,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B127">
         <v>472</v>
@@ -2358,7 +3042,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B128">
         <v>548</v>
@@ -2366,7 +3050,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B129">
         <v>559</v>
@@ -2374,7 +3058,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B130">
         <v>463</v>
@@ -2382,7 +3066,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="B131">
         <v>407</v>
@@ -2390,7 +3074,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="B132">
         <v>362</v>
@@ -2398,7 +3082,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="B133">
         <v>405</v>
@@ -2406,7 +3090,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B134">
         <v>417</v>
@@ -2414,7 +3098,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="B135">
         <v>391</v>
@@ -2422,7 +3106,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B136">
         <v>419</v>
@@ -2430,7 +3114,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="B137">
         <v>461</v>
@@ -2438,7 +3122,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="B138">
         <v>472</v>
@@ -2446,7 +3130,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="B139">
         <v>535</v>
@@ -2454,7 +3138,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="B140">
         <v>622</v>
@@ -2462,7 +3146,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="B141">
         <v>606</v>
@@ -2470,7 +3154,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="B142">
         <v>508</v>
@@ -2478,7 +3162,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="B143">
         <v>461</v>
@@ -2486,7 +3170,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="B144">
         <v>390</v>
@@ -2494,7 +3178,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="B145">
         <v>432</v>
@@ -2506,4 +3190,185 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B5ADD7-6292-429D-9BD5-A4199984D9AE}">
+  <dimension ref="B2:F93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B2" t="str" cm="1">
+        <f t="array" aca="1" ref="B2:F7" ca="1">_xlfn._xlws.PY(0,0,passengers[#All])</f>
+        <v>month</v>
+      </c>
+      <c r="C2" t="str">
+        <f ca="1"/>
+        <v>passengers</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1"/>
+        <v>year</v>
+      </c>
+      <c r="E2" t="str">
+        <f ca="1"/>
+        <v>month_name</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1"/>
+        <v>month_num</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B3" vm="2">
+        <f ca="1"/>
+        <v>17899</v>
+      </c>
+      <c r="C3">
+        <f ca="1"/>
+        <v>112</v>
+      </c>
+      <c r="D3">
+        <f ca="1"/>
+        <v>1949</v>
+      </c>
+      <c r="E3" t="str">
+        <f ca="1"/>
+        <v>Jan</v>
+      </c>
+      <c r="F3">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B4" vm="3">
+        <f ca="1"/>
+        <v>17930</v>
+      </c>
+      <c r="C4">
+        <f ca="1"/>
+        <v>118</v>
+      </c>
+      <c r="D4">
+        <f ca="1"/>
+        <v>1949</v>
+      </c>
+      <c r="E4" t="str">
+        <f ca="1"/>
+        <v>Feb</v>
+      </c>
+      <c r="F4">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B5" vm="4">
+        <f ca="1"/>
+        <v>17958</v>
+      </c>
+      <c r="C5">
+        <f ca="1"/>
+        <v>132</v>
+      </c>
+      <c r="D5">
+        <f ca="1"/>
+        <v>1949</v>
+      </c>
+      <c r="E5" t="str">
+        <f ca="1"/>
+        <v>Mar</v>
+      </c>
+      <c r="F5">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B6" vm="5">
+        <f ca="1"/>
+        <v>17989</v>
+      </c>
+      <c r="C6">
+        <f ca="1"/>
+        <v>129</v>
+      </c>
+      <c r="D6">
+        <f ca="1"/>
+        <v>1949</v>
+      </c>
+      <c r="E6" t="str">
+        <f ca="1"/>
+        <v>Apr</v>
+      </c>
+      <c r="F6">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B7" vm="6">
+        <f ca="1"/>
+        <v>18019</v>
+      </c>
+      <c r="C7">
+        <f ca="1"/>
+        <v>121</v>
+      </c>
+      <c r="D7">
+        <f ca="1"/>
+        <v>1949</v>
+      </c>
+      <c r="E7" t="str">
+        <f ca="1"/>
+        <v>May</v>
+      </c>
+      <c r="F7">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.7">
+      <c r="B9" t="e" cm="1" vm="7">
+        <f t="array" aca="1" ref="B9" ca="1">_xlfn._xlws.PY(1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B25" t="e" cm="1" vm="8">
+        <f t="array" aca="1" ref="B25" ca="1">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B40" t="e" cm="1" vm="9">
+        <f t="array" aca="1" ref="B40" ca="1">_xlfn._xlws.PY(3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B66" t="e" cm="1" vm="10">
+        <f t="array" aca="1" ref="B66" ca="1">_xlfn._xlws.PY(4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B93" t="e" cm="1" vm="11">
+        <f t="array" aca="1" ref="B93" ca="1">_xlfn._xlws.PY(5,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/python-excel-seasonal-plots-demo.xlsx
+++ b/python-excel-seasonal-plots-demo.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF4231C9-EDF2-421B-AE7A-3A5CF4C1AF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF99CF0-BD16-4FA1-8053-9B16B5D59CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{8B387E3D-A676-46B1-BA58-7FE9BB5AF135}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{8B387E3D-A676-46B1-BA58-7FE9BB5AF135}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="AirPassengers (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2015,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E05B2DD-F1E2-481C-9F2E-508CFB0C40C4}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
@@ -3196,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B5ADD7-6292-429D-9BD5-A4199984D9AE}">
   <dimension ref="B2:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
